--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1449.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1449.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.647257957528619</v>
+        <v>1.218987822532654</v>
       </c>
       <c r="B1">
-        <v>1.926779768763975</v>
+        <v>2.360851049423218</v>
       </c>
       <c r="C1">
-        <v>2.478360279358931</v>
+        <v>4.719763278961182</v>
       </c>
       <c r="D1">
-        <v>2.984605975982398</v>
+        <v>3.225871324539185</v>
       </c>
       <c r="E1">
-        <v>0.6329130982973411</v>
+        <v>1.15953254699707</v>
       </c>
     </row>
   </sheetData>
